--- a/biology/Médecine/DNAzyme/DNAzyme.xlsx
+++ b/biology/Médecine/DNAzyme/DNAzyme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les DNAzymes, ou DNA enzyme ou déoxyribozyme, sont de courtes chaines d'ADN monobrins, synthétisées in vitro et utilisées en tant qu'outils de recherche ou en tant que futurs médicaments.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils ont été développés au milieu des années 1990[1]. Ils sont utilisés en recherche in vitro ou sur des modèles animaux. La première étude[2] montrant un effet thérapeutique chez l'être humain a été publiée en 2013 pour la prise en charge de certains cancers de la peau[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils ont été développés au milieu des années 1990. Ils sont utilisés en recherche in vitro ou sur des modèles animaux. La première étude montrant un effet thérapeutique chez l'être humain a été publiée en 2013 pour la prise en charge de certains cancers de la peau.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Structure et mode d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les DNAzymes se fixent par appariement de bases sur un brin d'ARN. Ils comprennent trois parties, une centrale, avec activité catalytique permettant le clivage de l'ARN, et deux périphériques, destinées à reconnaître l'ARN cible[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les DNAzymes se fixent par appariement de bases sur un brin d'ARN. Ils comprennent trois parties, une centrale, avec activité catalytique permettant le clivage de l'ARN, et deux périphériques, destinées à reconnaître l'ARN cible.
 </t>
         </is>
       </c>
